--- a/data/pca/factorExposure/factorExposure_2010-03-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-03-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +714,33 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.0144252717856654</v>
+        <v>-0.01700291258236213</v>
       </c>
       <c r="C2">
-        <v>-0.0002095678717874903</v>
+        <v>0.001006562020364702</v>
       </c>
       <c r="D2">
-        <v>0.01074239011402128</v>
+        <v>-0.008052794354764661</v>
       </c>
       <c r="E2">
-        <v>0.01510150071658421</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>8.71875987187476e-06</v>
+      </c>
+      <c r="F2">
+        <v>0.009795405026818946</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +754,33 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1256360669976282</v>
+        <v>-0.0933758955417245</v>
       </c>
       <c r="C4">
-        <v>0.02791778329331513</v>
+        <v>0.01566945653396605</v>
       </c>
       <c r="D4">
-        <v>0.06177473716469115</v>
+        <v>-0.08497353396308037</v>
       </c>
       <c r="E4">
-        <v>0.006552761674192132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.03091467224013202</v>
+      </c>
+      <c r="F4">
+        <v>-0.03023162893856798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +794,233 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1211585123431257</v>
+        <v>-0.1549691571164712</v>
       </c>
       <c r="C6">
-        <v>-0.015231374487365</v>
+        <v>0.02469330063647081</v>
       </c>
       <c r="D6">
-        <v>-0.006590683687633469</v>
+        <v>0.02162649446401857</v>
       </c>
       <c r="E6">
-        <v>0.02522700061183765</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.01065841317374642</v>
+      </c>
+      <c r="F6">
+        <v>-0.05022076334798789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07480153339667296</v>
+        <v>-0.05929005979865822</v>
       </c>
       <c r="C7">
-        <v>-0.001833563411938563</v>
+        <v>-0.001083920574871616</v>
       </c>
       <c r="D7">
-        <v>0.06601917219582008</v>
+        <v>-0.05256652975743958</v>
       </c>
       <c r="E7">
-        <v>0.0481731265678571</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01445480798571578</v>
+      </c>
+      <c r="F7">
+        <v>-0.0482764772015684</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05467833130887581</v>
+        <v>-0.05779469080363731</v>
       </c>
       <c r="C8">
-        <v>0.005604131876291044</v>
+        <v>-0.01339988313340462</v>
       </c>
       <c r="D8">
-        <v>0.03541213530378088</v>
+        <v>-0.03196732778933398</v>
       </c>
       <c r="E8">
-        <v>0.02267354577137662</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.01562126362895526</v>
+      </c>
+      <c r="F8">
+        <v>0.03159792942950122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.09233514126259899</v>
+        <v>-0.07125577384218247</v>
       </c>
       <c r="C9">
-        <v>0.03636727215441253</v>
+        <v>0.01165460733039161</v>
       </c>
       <c r="D9">
-        <v>0.04063433709663027</v>
+        <v>-0.08448812362694497</v>
       </c>
       <c r="E9">
-        <v>0.01628863710837116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.02545518142564916</v>
+      </c>
+      <c r="F9">
+        <v>-0.051832779634285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.09354185604124829</v>
+        <v>-0.0952245696404654</v>
       </c>
       <c r="C10">
-        <v>-0.09961553969710038</v>
+        <v>0.01821327341995338</v>
       </c>
       <c r="D10">
-        <v>-0.1536224349291383</v>
+        <v>0.1708879460723878</v>
       </c>
       <c r="E10">
-        <v>-0.003095677053297058</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.03912072951775904</v>
+      </c>
+      <c r="F10">
+        <v>0.05345568695426885</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08269852459829224</v>
+        <v>-0.08719018650266992</v>
       </c>
       <c r="C11">
-        <v>0.008041389907053872</v>
+        <v>0.01125905333506808</v>
       </c>
       <c r="D11">
-        <v>0.04798121496228102</v>
+        <v>-0.1148000343466117</v>
       </c>
       <c r="E11">
-        <v>0.0370379341014352</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.04950678846641424</v>
+      </c>
+      <c r="F11">
+        <v>-0.01842320521573627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.08629680467780278</v>
+        <v>-0.09173019714142132</v>
       </c>
       <c r="C12">
-        <v>0.01317849953097183</v>
+        <v>0.008766843533304692</v>
       </c>
       <c r="D12">
-        <v>0.07228789673937265</v>
+        <v>-0.1245837761762133</v>
       </c>
       <c r="E12">
-        <v>0.04863278150515388</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.04912301997315058</v>
+      </c>
+      <c r="F12">
+        <v>-0.0189314545287904</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.0366386554391229</v>
+        <v>-0.04283816423066521</v>
       </c>
       <c r="C13">
-        <v>0.03530451532618601</v>
+        <v>0.003849402767501278</v>
       </c>
       <c r="D13">
-        <v>0.009879106452438002</v>
+        <v>-0.04766778648322706</v>
       </c>
       <c r="E13">
-        <v>0.003328179085811384</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.01205515070235989</v>
+      </c>
+      <c r="F13">
+        <v>-0.01400246310395103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.03075006285308617</v>
+        <v>-0.02235531808972383</v>
       </c>
       <c r="C14">
-        <v>-0.0008906781084991726</v>
+        <v>0.01408804073751468</v>
       </c>
       <c r="D14">
-        <v>0.005398519131587693</v>
+        <v>-0.03283139210034071</v>
       </c>
       <c r="E14">
-        <v>-0.005873766518104255</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.01871076054886462</v>
+      </c>
+      <c r="F14">
+        <v>-0.01824869889689731</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.02067503826136131</v>
+        <v>-0.03138077184056885</v>
       </c>
       <c r="C15">
-        <v>0.01565672271924311</v>
+        <v>0.005182769446104523</v>
       </c>
       <c r="D15">
-        <v>0.001540266550195343</v>
+        <v>-0.0454686415263773</v>
       </c>
       <c r="E15">
-        <v>0.0159096196289215</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.008764983281126406</v>
+      </c>
+      <c r="F15">
+        <v>-0.02928984463286277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.09210922246662935</v>
+        <v>-0.07290956306164029</v>
       </c>
       <c r="C16">
-        <v>0.002579592243026404</v>
+        <v>0.002626233645284977</v>
       </c>
       <c r="D16">
-        <v>0.06464332291577464</v>
+        <v>-0.1191268308776474</v>
       </c>
       <c r="E16">
-        <v>0.04706931715168683</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.06423309656763374</v>
+      </c>
+      <c r="F16">
+        <v>-0.02766201918005183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,27 +1034,33 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02405264088885314</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003900201293492878</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.01938138893987543</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>-0.006337749404837752</v>
+      </c>
+      <c r="F18">
+        <v>0.01731478877270159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1074,153 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.05053284758086189</v>
+        <v>-0.0604149713024268</v>
       </c>
       <c r="C20">
-        <v>-0.008169594117317163</v>
+        <v>0.0003082688814019055</v>
       </c>
       <c r="D20">
-        <v>0.04555970820445397</v>
+        <v>-0.07554721955100981</v>
       </c>
       <c r="E20">
-        <v>0.0001341557903726745</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.05569878009284759</v>
+      </c>
+      <c r="F20">
+        <v>-0.02646576788742598</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.0322002852080462</v>
+        <v>-0.03868724536945433</v>
       </c>
       <c r="C21">
-        <v>-0.003316813029160976</v>
+        <v>0.006835896846879273</v>
       </c>
       <c r="D21">
-        <v>0.003351950861058199</v>
+        <v>-0.03585520744970218</v>
       </c>
       <c r="E21">
-        <v>-0.02995368178243908</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.007617151944748503</v>
+      </c>
+      <c r="F21">
+        <v>0.02173005231910978</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.03023113237409749</v>
+        <v>-0.04335395539275783</v>
       </c>
       <c r="C22">
-        <v>-0.01576588857847418</v>
+        <v>0.000981276678563771</v>
       </c>
       <c r="D22">
-        <v>-0.03661291775023877</v>
+        <v>0.001014224809423041</v>
       </c>
       <c r="E22">
-        <v>0.07497945761727254</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.02773479121022085</v>
+      </c>
+      <c r="F22">
+        <v>0.002932043684533152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.03044097513761264</v>
+        <v>-0.04340625277279335</v>
       </c>
       <c r="C23">
-        <v>-0.01593081919852641</v>
+        <v>0.001003235772185639</v>
       </c>
       <c r="D23">
-        <v>-0.03611768755536018</v>
+        <v>0.0008866064523500629</v>
       </c>
       <c r="E23">
-        <v>0.07688206255209394</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.02808975432771719</v>
+      </c>
+      <c r="F23">
+        <v>0.00246717977884213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.09048770618459186</v>
+        <v>-0.07938704153921416</v>
       </c>
       <c r="C24">
-        <v>-4.937206805396895e-05</v>
+        <v>0.002906628915484041</v>
       </c>
       <c r="D24">
-        <v>0.06081401492683003</v>
+        <v>-0.1191291912500174</v>
       </c>
       <c r="E24">
-        <v>0.03486560553142536</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.05220627395800078</v>
+      </c>
+      <c r="F24">
+        <v>-0.0200032150915965</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09454250908192395</v>
+        <v>-0.08448616662363907</v>
       </c>
       <c r="C25">
-        <v>-0.0008184046497820304</v>
+        <v>0.005006155561251677</v>
       </c>
       <c r="D25">
-        <v>0.04967477049685943</v>
+        <v>-0.1077765147116747</v>
       </c>
       <c r="E25">
-        <v>0.03972890447049557</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.03491053266684876</v>
+      </c>
+      <c r="F25">
+        <v>-0.02809433408152422</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.03470672317817274</v>
+        <v>-0.05455769445045183</v>
       </c>
       <c r="C26">
-        <v>-0.03246071824319039</v>
+        <v>0.01450727445382693</v>
       </c>
       <c r="D26">
-        <v>-0.01466316978559752</v>
+        <v>-0.04052440798718127</v>
       </c>
       <c r="E26">
-        <v>-0.0007486902555062742</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.02708139693455314</v>
+      </c>
+      <c r="F26">
+        <v>0.01072767192829215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1234,193 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.0948908085861619</v>
+        <v>-0.143601317955571</v>
       </c>
       <c r="C28">
-        <v>-0.1158726725308655</v>
+        <v>0.01711432932814</v>
       </c>
       <c r="D28">
-        <v>-0.3023251145890893</v>
+        <v>0.2654625641740011</v>
       </c>
       <c r="E28">
-        <v>-0.004780129624502212</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.06913850796747729</v>
+      </c>
+      <c r="F28">
+        <v>-0.02984535443451726</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02969760109974372</v>
+        <v>-0.02708585102574531</v>
       </c>
       <c r="C29">
-        <v>0.00989624076200268</v>
+        <v>0.008369659706213187</v>
       </c>
       <c r="D29">
-        <v>-0.0008268814990252424</v>
+        <v>-0.03190462676882139</v>
       </c>
       <c r="E29">
-        <v>-0.001845369936351082</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.0116365091842159</v>
+      </c>
+      <c r="F29">
+        <v>0.01333051976598591</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.1079490074902353</v>
+        <v>-0.06241680552913552</v>
       </c>
       <c r="C30">
-        <v>0.05548563352546774</v>
+        <v>0.004254600755031935</v>
       </c>
       <c r="D30">
-        <v>0.09182217235326935</v>
+        <v>-0.08635719117729632</v>
       </c>
       <c r="E30">
-        <v>0.04701947755560332</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.02503805172994353</v>
+      </c>
+      <c r="F30">
+        <v>-0.1018728629528554</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03117129236617915</v>
+        <v>-0.04811407919408197</v>
       </c>
       <c r="C31">
-        <v>0.0003339797505030931</v>
+        <v>0.01497067548407578</v>
       </c>
       <c r="D31">
-        <v>0.02556693201939217</v>
+        <v>-0.02613629038888587</v>
       </c>
       <c r="E31">
-        <v>0.01453454114544506</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.02814205927238593</v>
+      </c>
+      <c r="F31">
+        <v>0.00601442594061625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.06055655120512413</v>
+        <v>-0.04788149509445194</v>
       </c>
       <c r="C32">
-        <v>-0.01468802230037325</v>
+        <v>-0.0005486486624605665</v>
       </c>
       <c r="D32">
-        <v>0.02599128922026301</v>
+        <v>-0.03168705017546329</v>
       </c>
       <c r="E32">
-        <v>-0.004067342304824764</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.0299978914659081</v>
+      </c>
+      <c r="F32">
+        <v>-0.002176078057711447</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09885692514300995</v>
+        <v>-0.08942312550103634</v>
       </c>
       <c r="C33">
-        <v>0.02977410768554116</v>
+        <v>0.008306381981661557</v>
       </c>
       <c r="D33">
-        <v>0.0443837269065459</v>
+        <v>-0.09729821617712672</v>
       </c>
       <c r="E33">
-        <v>0.08126444476147979</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.04791555427592947</v>
+      </c>
+      <c r="F33">
+        <v>-0.0392373709702526</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.07769560846781004</v>
+        <v>-0.06718264460941253</v>
       </c>
       <c r="C34">
-        <v>-0.005193377035620606</v>
+        <v>0.0117684910590345</v>
       </c>
       <c r="D34">
-        <v>0.05779016286388792</v>
+        <v>-0.0994642493035451</v>
       </c>
       <c r="E34">
-        <v>0.04321037245427235</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.03637869221563946</v>
+      </c>
+      <c r="F34">
+        <v>-0.03815860580595668</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01311838669176755</v>
+        <v>-0.02440482944642428</v>
       </c>
       <c r="C35">
-        <v>0.01356370234902738</v>
+        <v>0.002337117859654762</v>
       </c>
       <c r="D35">
-        <v>0.005016103235437255</v>
+        <v>-0.01156759728431391</v>
       </c>
       <c r="E35">
-        <v>0.0002888465182546787</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.01108844734350261</v>
+      </c>
+      <c r="F35">
+        <v>-0.008709229564145828</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.0286873855654508</v>
+        <v>-0.02444024782767966</v>
       </c>
       <c r="C36">
-        <v>0.0120504864710191</v>
+        <v>0.007298660436151337</v>
       </c>
       <c r="D36">
-        <v>-2.487011751836838e-05</v>
+        <v>-0.03701191359036105</v>
       </c>
       <c r="E36">
-        <v>0.002611695647329687</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.0172990841650746</v>
+      </c>
+      <c r="F36">
+        <v>-0.01412434389796211</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1434,93 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.007135186216250709</v>
+        <v>-0.001500570913789549</v>
       </c>
       <c r="C38">
-        <v>0.001898210421995562</v>
+        <v>0.0002345949159738293</v>
       </c>
       <c r="D38">
-        <v>0.004620742291733285</v>
+        <v>-0.0009298677454966911</v>
       </c>
       <c r="E38">
-        <v>0.005313115534004677</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.001204539952728021</v>
+      </c>
+      <c r="F38">
+        <v>0.001374830380489209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.133115092404736</v>
+        <v>-0.107508533118171</v>
       </c>
       <c r="C39">
-        <v>0.02442406900436437</v>
+        <v>0.01639618552913609</v>
       </c>
       <c r="D39">
-        <v>0.09967331764037395</v>
+        <v>-0.1554142657557188</v>
       </c>
       <c r="E39">
-        <v>0.06761348340057619</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.06238199580194435</v>
+      </c>
+      <c r="F39">
+        <v>-0.02303419667832271</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.004227675209264652</v>
+        <v>-0.037058798119085</v>
       </c>
       <c r="C40">
-        <v>0.0006415324451722914</v>
+        <v>0.007030180159292534</v>
       </c>
       <c r="D40">
-        <v>0.02285032299773936</v>
+        <v>-0.03336684139446642</v>
       </c>
       <c r="E40">
-        <v>-0.01090800557989661</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.002845206476301015</v>
+      </c>
+      <c r="F40">
+        <v>0.01178986785082872</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02141199208323225</v>
+        <v>-0.0262870942447627</v>
       </c>
       <c r="C41">
-        <v>-0.02558033870621223</v>
+        <v>0.006513323012222068</v>
       </c>
       <c r="D41">
-        <v>0.007652048737222451</v>
+        <v>-0.01139471291362051</v>
       </c>
       <c r="E41">
-        <v>0.006846834572141485</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.01223156994862945</v>
+      </c>
+      <c r="F41">
+        <v>0.008565770467989101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1534,53 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.03293838836538898</v>
+        <v>-0.04006839388911127</v>
       </c>
       <c r="C43">
-        <v>-0.02572366412241201</v>
+        <v>0.006594266038782338</v>
       </c>
       <c r="D43">
-        <v>0.0102035716747734</v>
+        <v>-0.02114178851502721</v>
       </c>
       <c r="E43">
-        <v>0.02986933242480523</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.0246993209436515</v>
+      </c>
+      <c r="F43">
+        <v>0.01355078423402151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1324278614960166</v>
+        <v>-0.07581978259950721</v>
       </c>
       <c r="C44">
-        <v>0.06217955892791498</v>
+        <v>0.02144245597981694</v>
       </c>
       <c r="D44">
-        <v>0.1110555959011995</v>
+        <v>-0.09475558046798833</v>
       </c>
       <c r="E44">
-        <v>0.0598574091924499</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.07590960629072092</v>
+      </c>
+      <c r="F44">
+        <v>-0.181901072642594</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,197 +1594,233 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.01654523690431752</v>
+        <v>-0.02253639002054309</v>
       </c>
       <c r="C46">
-        <v>-0.02305220179370927</v>
+        <v>0.003486783213470214</v>
       </c>
       <c r="D46">
-        <v>-0.0153770365921227</v>
+        <v>-0.01292425236062996</v>
       </c>
       <c r="E46">
-        <v>0.02876042566763631</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.02352734370256778</v>
+      </c>
+      <c r="F46">
+        <v>-0.0002306022501808586</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.03858576724455785</v>
+        <v>-0.05156646067904075</v>
       </c>
       <c r="C47">
-        <v>-0.005884595138846093</v>
+        <v>0.003195534879572794</v>
       </c>
       <c r="D47">
-        <v>0.01104552544415155</v>
+        <v>-0.0140458403210736</v>
       </c>
       <c r="E47">
-        <v>-0.0004012291265393501</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.02247710363275425</v>
+      </c>
+      <c r="F47">
+        <v>0.0447512057429385</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.03573008441109398</v>
+        <v>-0.04745216660019234</v>
       </c>
       <c r="C48">
-        <v>0.008968970049526152</v>
+        <v>0.002522102528086217</v>
       </c>
       <c r="D48">
-        <v>-0.009034141461343594</v>
+        <v>-0.05041288732204122</v>
       </c>
       <c r="E48">
-        <v>0.0006028792245917423</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.004454086342145131</v>
+      </c>
+      <c r="F48">
+        <v>-0.01114473848853997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2292398371894637</v>
+        <v>-0.2030774889063882</v>
       </c>
       <c r="C49">
-        <v>-0.05170412244456454</v>
+        <v>0.01759907042059414</v>
       </c>
       <c r="D49">
-        <v>0.03484844057064342</v>
+        <v>0.009150051872284433</v>
       </c>
       <c r="E49">
-        <v>-0.01245976961887627</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.03299842518086522</v>
+      </c>
+      <c r="F49">
+        <v>-0.02932227114185851</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03789455406399968</v>
+        <v>-0.04810052670835583</v>
       </c>
       <c r="C50">
-        <v>-0.01282184419765854</v>
+        <v>0.01097870019081286</v>
       </c>
       <c r="D50">
-        <v>0.02490564839398099</v>
+        <v>-0.02613586502887338</v>
       </c>
       <c r="E50">
-        <v>0.007561111385085637</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.02973781575448156</v>
+      </c>
+      <c r="F50">
+        <v>-0.007977023239206632</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.01052309985739797</v>
+        <v>-0.0021452191683653</v>
       </c>
       <c r="C51">
-        <v>-0.006007368203468756</v>
+        <v>0.000545300304470884</v>
       </c>
       <c r="D51">
-        <v>-0.015551311371565</v>
+        <v>0.002291856784196612</v>
       </c>
       <c r="E51">
-        <v>0.01520116543790196</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-4.532542442442618e-05</v>
+      </c>
+      <c r="F51">
+        <v>-0.004686989400178645</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1103318921884673</v>
+        <v>-0.1448846388912365</v>
       </c>
       <c r="C52">
-        <v>0.04710678764318311</v>
+        <v>0.01396862965197345</v>
       </c>
       <c r="D52">
-        <v>0.0600339786575076</v>
+        <v>-0.0503074459798851</v>
       </c>
       <c r="E52">
-        <v>0.003574564605842441</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>0.02431890348791806</v>
+      </c>
+      <c r="F52">
+        <v>-0.03337586263102527</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.160746271177727</v>
+        <v>-0.173920590680603</v>
       </c>
       <c r="C53">
-        <v>0.02194921381638649</v>
+        <v>0.01689237647500267</v>
       </c>
       <c r="D53">
-        <v>0.02316353848704094</v>
+        <v>-0.01083305596320785</v>
       </c>
       <c r="E53">
-        <v>-0.001456890768883085</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.0357442290475153</v>
+      </c>
+      <c r="F53">
+        <v>-0.06614480259246031</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.04962403415180881</v>
+        <v>-0.02171743762451383</v>
       </c>
       <c r="C54">
-        <v>-0.0003040568475516255</v>
+        <v>0.01224180889265323</v>
       </c>
       <c r="D54">
-        <v>0.01993954837967923</v>
+        <v>-0.03445751193440961</v>
       </c>
       <c r="E54">
-        <v>0.01101356770045208</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01540619886281874</v>
+      </c>
+      <c r="F54">
+        <v>0.003943716377895196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08396288477742138</v>
+        <v>-0.1141771413321393</v>
       </c>
       <c r="C55">
-        <v>0.02851247328178218</v>
+        <v>0.01549354407161491</v>
       </c>
       <c r="D55">
-        <v>0.005330126212557972</v>
+        <v>-0.01091296244054295</v>
       </c>
       <c r="E55">
-        <v>0.04490005119340092</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.0311700818577012</v>
+      </c>
+      <c r="F55">
+        <v>-0.0448351915596378</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1570052423238774</v>
+        <v>-0.1775087247117752</v>
       </c>
       <c r="C56">
-        <v>0.0107573882679861</v>
+        <v>0.01438712982625977</v>
       </c>
       <c r="D56">
-        <v>0.04423323750532736</v>
+        <v>-0.007278643961925231</v>
       </c>
       <c r="E56">
-        <v>0.02596462233524821</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.04058622330239262</v>
+      </c>
+      <c r="F56">
+        <v>-0.04300658389062272</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,758 +1834,893 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04688034277278717</v>
+        <v>-0.04644870212629562</v>
       </c>
       <c r="C58">
-        <v>-0.01298338456091704</v>
+        <v>0.001300386666483366</v>
       </c>
       <c r="D58">
-        <v>0.0005477286338105206</v>
+        <v>-0.06545264923985485</v>
       </c>
       <c r="E58">
-        <v>-0.01270685020584067</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.02362138059065611</v>
+      </c>
+      <c r="F58">
+        <v>0.04415259945123488</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1671636787494929</v>
+        <v>-0.1724537026225114</v>
       </c>
       <c r="C59">
-        <v>-0.09535121741473816</v>
+        <v>0.01772989572598103</v>
       </c>
       <c r="D59">
-        <v>-0.2324020679798429</v>
+        <v>0.2222146291719644</v>
       </c>
       <c r="E59">
-        <v>0.02341962573630698</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.04912376038395829</v>
+      </c>
+      <c r="F59">
+        <v>0.03062674610201789</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2782387355054546</v>
+        <v>-0.2356520129843988</v>
       </c>
       <c r="C60">
-        <v>0.05986912627590958</v>
+        <v>-0.004204921412704905</v>
       </c>
       <c r="D60">
-        <v>0.1344685173901793</v>
+        <v>-0.04726599614965867</v>
       </c>
       <c r="E60">
-        <v>-0.0388130880467697</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.009823533611264869</v>
+      </c>
+      <c r="F60">
+        <v>0.03276243019513025</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1183085618872765</v>
+        <v>-0.08292471314756858</v>
       </c>
       <c r="C61">
-        <v>0.03702076198141759</v>
+        <v>0.01251929319905029</v>
       </c>
       <c r="D61">
-        <v>0.05603953973107127</v>
+        <v>-0.1147882278268163</v>
       </c>
       <c r="E61">
-        <v>0.04384617674382364</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.04254192556308545</v>
+      </c>
+      <c r="F61">
+        <v>-0.01258001152662487</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1576708616205295</v>
+        <v>-0.1702485132811403</v>
       </c>
       <c r="C62">
-        <v>0.009768834324018788</v>
+        <v>0.01794317794774499</v>
       </c>
       <c r="D62">
-        <v>0.03099440788143018</v>
+        <v>-0.01064104717320075</v>
       </c>
       <c r="E62">
-        <v>0.01796578569788075</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>0.03647009050693557</v>
+      </c>
+      <c r="F62">
+        <v>-0.02355742327868642</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04213018456895727</v>
+        <v>-0.04215803434897185</v>
       </c>
       <c r="C63">
-        <v>0.006445871053198894</v>
+        <v>0.002566160106294045</v>
       </c>
       <c r="D63">
-        <v>-0.008467469255915357</v>
+        <v>-0.05372354966065012</v>
       </c>
       <c r="E63">
-        <v>0.01621062169028577</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.02200369917363593</v>
+      </c>
+      <c r="F63">
+        <v>-0.006915306287568188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09327732430050248</v>
+        <v>-0.1115845914952822</v>
       </c>
       <c r="C64">
-        <v>-0.00227696014964838</v>
+        <v>0.0110908397462353</v>
       </c>
       <c r="D64">
-        <v>0.01968640978873626</v>
+        <v>-0.04431123779091488</v>
       </c>
       <c r="E64">
-        <v>0.003011812209446596</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02064006080412113</v>
+      </c>
+      <c r="F64">
+        <v>-0.02555545046561933</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1189720553907221</v>
+        <v>-0.1460838224428336</v>
       </c>
       <c r="C65">
-        <v>0.01610068225391275</v>
+        <v>0.03134818677852562</v>
       </c>
       <c r="D65">
-        <v>-0.01761755983161424</v>
+        <v>0.04203977946159464</v>
       </c>
       <c r="E65">
-        <v>0.002300411160783657</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.0003511653412555176</v>
+      </c>
+      <c r="F65">
+        <v>-0.04980266989820581</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1542461619469324</v>
+        <v>-0.1285254914157789</v>
       </c>
       <c r="C66">
-        <v>0.02658167761185414</v>
+        <v>0.01415742298733763</v>
       </c>
       <c r="D66">
-        <v>0.1301635682677499</v>
+        <v>-0.143726684909375</v>
       </c>
       <c r="E66">
-        <v>0.07969868219072887</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.06927205700468032</v>
+      </c>
+      <c r="F66">
+        <v>-0.02856418730215824</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06785809175316136</v>
+        <v>-0.06201892842994618</v>
       </c>
       <c r="C67">
-        <v>0.03756404238245464</v>
+        <v>0.002840131181054137</v>
       </c>
       <c r="D67">
-        <v>0.01375734744394644</v>
+        <v>-0.05514621829645985</v>
       </c>
       <c r="E67">
-        <v>0.07967477764580713</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.01725668638951258</v>
+      </c>
+      <c r="F67">
+        <v>0.04054637493984259</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.08646631058085777</v>
+        <v>-0.117256161677042</v>
       </c>
       <c r="C68">
-        <v>-0.09976555627703201</v>
+        <v>0.02765841083198788</v>
       </c>
       <c r="D68">
-        <v>-0.2592731268933712</v>
+        <v>0.2613061786716567</v>
       </c>
       <c r="E68">
-        <v>-0.009981063829201517</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.08789548429730322</v>
+      </c>
+      <c r="F68">
+        <v>-0.03246778964052997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03393343319795095</v>
+        <v>-0.03907126768437753</v>
       </c>
       <c r="C69">
-        <v>0.01075439554414529</v>
+        <v>0.0009011716198109631</v>
       </c>
       <c r="D69">
-        <v>-0.01467143122454601</v>
+        <v>-0.009933281425856519</v>
       </c>
       <c r="E69">
-        <v>0.02472661382496885</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02423511205038791</v>
+      </c>
+      <c r="F69">
+        <v>0.01045499937588251</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.02954889990318431</v>
+        <v>-0.06209939653511602</v>
       </c>
       <c r="C70">
-        <v>0.02148459129456138</v>
+        <v>-0.02876949846479973</v>
       </c>
       <c r="D70">
-        <v>-0.02471016937301836</v>
+        <v>-0.02985146858065382</v>
       </c>
       <c r="E70">
-        <v>0.02332557591160834</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>-0.04984354309636362</v>
+      </c>
+      <c r="F70">
+        <v>0.2682726867367738</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.09975852452381534</v>
+        <v>-0.1365519016774117</v>
       </c>
       <c r="C71">
-        <v>-0.1037394408189786</v>
+        <v>0.03193361001896677</v>
       </c>
       <c r="D71">
-        <v>-0.2788019204809686</v>
+        <v>0.2760792312345262</v>
       </c>
       <c r="E71">
-        <v>0.003507839200588519</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.09663076581404784</v>
+      </c>
+      <c r="F71">
+        <v>-0.03869619794520306</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1397713902615027</v>
+        <v>-0.1410158459505912</v>
       </c>
       <c r="C72">
-        <v>-0.02486376531577834</v>
+        <v>0.02496594224243218</v>
       </c>
       <c r="D72">
-        <v>-0.01103619355664464</v>
+        <v>-0.004786757952007094</v>
       </c>
       <c r="E72">
-        <v>0.01071870349367465</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.04477259193224966</v>
+      </c>
+      <c r="F72">
+        <v>-0.02571309343952572</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2282515464874355</v>
+        <v>-0.2030433750523357</v>
       </c>
       <c r="C73">
-        <v>-0.009972987305584807</v>
+        <v>0.01164549202608468</v>
       </c>
       <c r="D73">
-        <v>0.04514446376713373</v>
+        <v>-0.01668242386049481</v>
       </c>
       <c r="E73">
-        <v>0.06879656022528691</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.06366278010322986</v>
+      </c>
+      <c r="F73">
+        <v>-0.03214133611408936</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1142406511714876</v>
+        <v>-0.0944013101024178</v>
       </c>
       <c r="C74">
-        <v>-0.005583131340637106</v>
+        <v>0.01224030182804488</v>
       </c>
       <c r="D74">
-        <v>0.04360120410846863</v>
+        <v>-0.02083479265822503</v>
       </c>
       <c r="E74">
-        <v>0.03337912998418137</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.04838506803124287</v>
+      </c>
+      <c r="F74">
+        <v>-0.0486004786111504</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1240554055082599</v>
+        <v>-0.129372093390811</v>
       </c>
       <c r="C75">
-        <v>0.004975409235540264</v>
+        <v>0.02654552337327501</v>
       </c>
       <c r="D75">
-        <v>0.05503746427899527</v>
+        <v>-0.03364024184553655</v>
       </c>
       <c r="E75">
-        <v>0.01938794292474203</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.06076668524411464</v>
+      </c>
+      <c r="F75">
+        <v>-0.01255033447498667</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.01701556712690623</v>
+        <v>-0.003261937566392635</v>
       </c>
       <c r="C76">
-        <v>-0.006423929848820826</v>
+        <v>0.0007847092823131808</v>
       </c>
       <c r="D76">
-        <v>-0.0150929314451906</v>
+        <v>0.002330119786048028</v>
       </c>
       <c r="E76">
-        <v>0.009611226945040054</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.0005051142451585921</v>
+      </c>
+      <c r="F76">
+        <v>-0.003945646031767992</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07598782301995234</v>
+        <v>-0.07818500860292193</v>
       </c>
       <c r="C77">
-        <v>0.04336186887628785</v>
+        <v>0.008636530576918868</v>
       </c>
       <c r="D77">
-        <v>0.1104787129967216</v>
+        <v>-0.1187094031010026</v>
       </c>
       <c r="E77">
-        <v>0.001095684235972936</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04007470312527827</v>
+      </c>
+      <c r="F77">
+        <v>-0.0316382872943312</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1171499764434237</v>
+        <v>-0.1038194877117913</v>
       </c>
       <c r="C78">
-        <v>-0.07808384377513654</v>
+        <v>0.03989973122158026</v>
       </c>
       <c r="D78">
-        <v>0.07179275529846289</v>
+        <v>-0.1175950307546219</v>
       </c>
       <c r="E78">
-        <v>0.1701137999527995</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.08300842122230481</v>
+      </c>
+      <c r="F78">
+        <v>-0.06281535052621068</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1309479868249991</v>
+        <v>-0.1640564698285913</v>
       </c>
       <c r="C79">
-        <v>-0.02626505394610501</v>
+        <v>0.02063278772259739</v>
       </c>
       <c r="D79">
-        <v>0.05795779007137809</v>
+        <v>-0.01950831447200099</v>
       </c>
       <c r="E79">
-        <v>0.008580366157105187</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.0487939645423275</v>
+      </c>
+      <c r="F79">
+        <v>-0.004496617000354874</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08380664400889001</v>
+        <v>-0.08074534154458857</v>
       </c>
       <c r="C80">
-        <v>0.04871554963715068</v>
+        <v>-0.0009430598784979339</v>
       </c>
       <c r="D80">
-        <v>0.06548414784028363</v>
+        <v>-0.05573656237347022</v>
       </c>
       <c r="E80">
-        <v>0.05784107645439428</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03541138570386636</v>
+      </c>
+      <c r="F80">
+        <v>0.01940540212868213</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1415588890284651</v>
+        <v>-0.1230786923087632</v>
       </c>
       <c r="C81">
-        <v>-0.003729457263265961</v>
+        <v>0.03038163237089796</v>
       </c>
       <c r="D81">
-        <v>0.06604242320575239</v>
+        <v>-0.01798347195799967</v>
       </c>
       <c r="E81">
-        <v>0.02853813671592583</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.06022368514664336</v>
+      </c>
+      <c r="F81">
+        <v>-0.005451071072026567</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1651991072614272</v>
+        <v>-0.1641505002497574</v>
       </c>
       <c r="C82">
-        <v>0.02318607970849148</v>
+        <v>0.02249954908342675</v>
       </c>
       <c r="D82">
-        <v>0.04337384693201331</v>
+        <v>-0.01248531905786251</v>
       </c>
       <c r="E82">
-        <v>0.02790307915706914</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.03470049720585817</v>
+      </c>
+      <c r="F82">
+        <v>-0.06722688893885206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.08047917054254035</v>
+        <v>-0.0623108615251813</v>
       </c>
       <c r="C83">
-        <v>0.03312004806263916</v>
+        <v>0.003016840928521637</v>
       </c>
       <c r="D83">
-        <v>0.05424085280998298</v>
+        <v>-0.05094921881124864</v>
       </c>
       <c r="E83">
-        <v>-0.03718697795053822</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.005621536439402407</v>
+      </c>
+      <c r="F83">
+        <v>0.04403808034596655</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.07335314246430218</v>
+        <v>-0.05887135189929728</v>
       </c>
       <c r="C84">
-        <v>0.01204545515483839</v>
+        <v>0.01058757899841317</v>
       </c>
       <c r="D84">
-        <v>-0.007824086239481613</v>
+        <v>-0.06487572137572221</v>
       </c>
       <c r="E84">
-        <v>-0.01951291369992292</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.004052932479646443</v>
+      </c>
+      <c r="F84">
+        <v>-0.01100489524778614</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1253528959856528</v>
+        <v>-0.1387691392036559</v>
       </c>
       <c r="C85">
-        <v>-0.00320063765347557</v>
+        <v>0.02632522961693003</v>
       </c>
       <c r="D85">
-        <v>0.03379913285847571</v>
+        <v>-0.01434954161310249</v>
       </c>
       <c r="E85">
-        <v>0.02012217708020866</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.04161021212801902</v>
+      </c>
+      <c r="F85">
+        <v>-0.04517957463777898</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1380220242937182</v>
+        <v>-0.09447806275507174</v>
       </c>
       <c r="C86">
-        <v>-0.2680754208104654</v>
+        <v>-0.007048500669737382</v>
       </c>
       <c r="D86">
-        <v>0.2047707944968783</v>
+        <v>-0.02034606858433345</v>
       </c>
       <c r="E86">
-        <v>-0.8867879951907519</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.1494959816002772</v>
+      </c>
+      <c r="F86">
+        <v>0.8742136024769303</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1226619554262274</v>
+        <v>-0.09577478358906641</v>
       </c>
       <c r="C87">
-        <v>0.1149914092222101</v>
+        <v>0.02175118036504134</v>
       </c>
       <c r="D87">
-        <v>0.04887632658773143</v>
+        <v>-0.09131788941502104</v>
       </c>
       <c r="E87">
-        <v>-4.057667818661857e-05</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.05349709967356271</v>
+      </c>
+      <c r="F87">
+        <v>-0.08235720966090145</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05086020072535892</v>
+        <v>-0.06094810179238309</v>
       </c>
       <c r="C88">
-        <v>-0.008193443836218603</v>
+        <v>0.002384628616719833</v>
       </c>
       <c r="D88">
-        <v>0.02345517027826146</v>
+        <v>-0.05389921317628089</v>
       </c>
       <c r="E88">
-        <v>0.03164573138054102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.02730255261186986</v>
+      </c>
+      <c r="F88">
+        <v>-0.009262841309724611</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1504229587736614</v>
+        <v>-0.1359961485952584</v>
       </c>
       <c r="C89">
-        <v>-0.137909977967719</v>
+        <v>0.01002629289040678</v>
       </c>
       <c r="D89">
-        <v>-0.3403286470880814</v>
+        <v>0.2533527378237708</v>
       </c>
       <c r="E89">
-        <v>-0.009253338451892095</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.0915798762195555</v>
+      </c>
+      <c r="F89">
+        <v>-0.0170338590339992</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1100373645546684</v>
+        <v>-0.1479764141056533</v>
       </c>
       <c r="C90">
-        <v>-0.1120076023354993</v>
+        <v>0.02768791230315781</v>
       </c>
       <c r="D90">
-        <v>-0.2717256497387492</v>
+        <v>0.2664423688586156</v>
       </c>
       <c r="E90">
-        <v>-0.008086046081885309</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.1093995343685134</v>
+      </c>
+      <c r="F90">
+        <v>-0.0212277291457558</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.08646368991046863</v>
+        <v>-0.1194406534853119</v>
       </c>
       <c r="C91">
-        <v>-0.001811852917349544</v>
+        <v>0.01698338222737933</v>
       </c>
       <c r="D91">
-        <v>0.0403486389656268</v>
+        <v>0.008454651584748469</v>
       </c>
       <c r="E91">
-        <v>-0.004603609338693924</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.05799506031384018</v>
+      </c>
+      <c r="F91">
+        <v>0.01684314109763255</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1270652362503599</v>
+        <v>-0.1502602794747282</v>
       </c>
       <c r="C92">
-        <v>-0.1104149579307202</v>
+        <v>0.01938173602166136</v>
       </c>
       <c r="D92">
-        <v>-0.307268568629468</v>
+        <v>0.2931975308405444</v>
       </c>
       <c r="E92">
-        <v>-0.01442353442332187</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.1036980931533579</v>
+      </c>
+      <c r="F92">
+        <v>-0.01582586115756932</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.116212132405442</v>
+        <v>-0.1520392505150814</v>
       </c>
       <c r="C93">
-        <v>-0.1212010666487159</v>
+        <v>0.02371171240021189</v>
       </c>
       <c r="D93">
-        <v>-0.3031953497922832</v>
+        <v>0.2660740636836788</v>
       </c>
       <c r="E93">
-        <v>-0.03196383138716122</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.07616855023437816</v>
+      </c>
+      <c r="F93">
+        <v>-0.01594185070953886</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1474952958335834</v>
+        <v>-0.1326141097422827</v>
       </c>
       <c r="C94">
-        <v>0.004521828394497248</v>
+        <v>0.0236942539977854</v>
       </c>
       <c r="D94">
-        <v>0.04834080846758802</v>
+        <v>-0.04562710824661092</v>
       </c>
       <c r="E94">
-        <v>0.07317526117563544</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.06127274730337459</v>
+      </c>
+      <c r="F94">
+        <v>-0.03072991247033112</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1160951512265467</v>
+        <v>-0.1259385472208476</v>
       </c>
       <c r="C95">
-        <v>-0.001677157865256</v>
+        <v>0.004628424230854021</v>
       </c>
       <c r="D95">
-        <v>0.04138406628499765</v>
+        <v>-0.09055287324051649</v>
       </c>
       <c r="E95">
-        <v>0.0352315740787059</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.04533603754552788</v>
+      </c>
+      <c r="F95">
+        <v>0.01329485486219312</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.01318597718944403</v>
+        <v>-0.09902143974055359</v>
       </c>
       <c r="C96">
-        <v>0.002437092851876806</v>
+        <v>-0.9887254141286379</v>
       </c>
       <c r="D96">
-        <v>-0.001123734025479278</v>
+        <v>0.03607782672298522</v>
       </c>
       <c r="E96">
-        <v>-0.0002428668755285928</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>0.05841564096100255</v>
+      </c>
+      <c r="F96">
+        <v>-0.04610524767324035</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1750940146122077</v>
+        <v>-0.1906486347013043</v>
       </c>
       <c r="C97">
-        <v>-0.02848062988595942</v>
+        <v>-0.009314248687400372</v>
       </c>
       <c r="D97">
-        <v>0.04428502801896749</v>
+        <v>0.01495305411331262</v>
       </c>
       <c r="E97">
-        <v>0.06829350298991092</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.01084257197962484</v>
+      </c>
+      <c r="F97">
+        <v>0.1551457092491818</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2454686874040418</v>
+        <v>-0.2053839753056809</v>
       </c>
       <c r="C98">
-        <v>0.03195695295348978</v>
+        <v>0.007120304082639345</v>
       </c>
       <c r="D98">
-        <v>-0.02259926944069961</v>
+        <v>-0.009809346242981087</v>
       </c>
       <c r="E98">
-        <v>-0.09357303011869957</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.09729708195391265</v>
+      </c>
+      <c r="F98">
+        <v>0.1095321776401071</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.04289505253142362</v>
+        <v>-0.05565486615281865</v>
       </c>
       <c r="C99">
-        <v>-0.02127890148718471</v>
+        <v>-0.004251702220507781</v>
       </c>
       <c r="D99">
-        <v>-0.002724467701480656</v>
+        <v>-0.03680824461039137</v>
       </c>
       <c r="E99">
-        <v>0.05238929883620917</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>0.02541439760884823</v>
+      </c>
+      <c r="F99">
+        <v>-0.003011572362443293</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.09828591925628134</v>
+        <v>-0.1227561072286127</v>
       </c>
       <c r="C100">
-        <v>0.8692710367107717</v>
+        <v>-0.05252432070106656</v>
       </c>
       <c r="D100">
-        <v>-0.3034576035932805</v>
+        <v>-0.3482778347973741</v>
       </c>
       <c r="E100">
-        <v>-0.2782274419568374</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>-0.8937764160101724</v>
+      </c>
+      <c r="F100">
+        <v>0.07330065897864901</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02936078009121319</v>
+        <v>-0.02701570413417</v>
       </c>
       <c r="C101">
-        <v>0.01028417289964918</v>
+        <v>0.008377105026214048</v>
       </c>
       <c r="D101">
-        <v>-0.0005728998927893731</v>
+        <v>-0.03160938373273353</v>
       </c>
       <c r="E101">
-        <v>-0.001276516902668715</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.01114547067895506</v>
+      </c>
+      <c r="F101">
+        <v>0.01510990994675219</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +2734,13 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +2754,13 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +2772,9 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
